--- a/Data Files/Website/DataFiles_CRM/DataExcel_KYCVideo/Data_CRM_Registration.xlsx
+++ b/Data Files/Website/DataFiles_CRM/DataExcel_KYCVideo/Data_CRM_Registration.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>SearchKYC</t>
   </si>
@@ -67,13 +67,19 @@
     <t>KALIBATA</t>
   </si>
   <si>
+    <t>Untuk testing staging</t>
+  </si>
+  <si>
+    <t>Data regression 2 Juli 2020</t>
+  </si>
+  <si>
+    <t>Jln Kalibata No.2</t>
+  </si>
+  <si>
     <t>Untuk testing</t>
   </si>
   <si>
     <t>Tidak suka orangnya</t>
-  </si>
-  <si>
-    <t>Jln Kalibata No.2</t>
   </si>
   <si>
     <t>Kantor</t>
@@ -90,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -105,6 +111,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -112,7 +133,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,16 +141,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,6 +155,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -148,55 +193,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,17 +223,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,14 +240,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,19 +263,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,31 +425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,127 +443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,16 +458,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,21 +477,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,8 +499,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,41 +516,56 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -569,130 +575,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1023,7 +1029,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4"/>
@@ -1031,14 +1037,14 @@
     <col min="1" max="1" width="14.1818181818182" customWidth="1"/>
     <col min="2" max="2" width="16.9090909090909" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="12.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="22.9090909090909" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="12.9090909090909" customWidth="1"/>
     <col min="7" max="7" width="27.3636363636364" customWidth="1"/>
     <col min="8" max="8" width="15.4545454545455" customWidth="1"/>
     <col min="9" max="9" width="12.4545454545455" customWidth="1"/>
-    <col min="10" max="10" width="15.6363636363636" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="10" max="10" width="22.6363636363636" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1112,9 +1118,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>10198</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1140,21 +1144,18 @@
         <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
-        <v>10502</v>
-      </c>
+    <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1">
         <v>7</v>
@@ -1175,21 +1176,18 @@
         <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
-        <v>10724</v>
-      </c>
+    <row r="5" spans="2:11">
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1">
         <v>8</v>
@@ -1210,10 +1208,10 @@
         <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Website/DataFiles_CRM/DataExcel_KYCVideo/Data_CRM_Registration.xlsx
+++ b/Data Files/Website/DataFiles_CRM/DataExcel_KYCVideo/Data_CRM_Registration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18650" windowHeight="7110"/>
+    <workbookView windowWidth="17930" windowHeight="6840"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>Untuk testing staging</t>
   </si>
   <si>
-    <t>Data regression 2 Juli 2020</t>
+    <t>Data regression  21122020</t>
   </si>
   <si>
     <t>Jln Kalibata No.2</t>
@@ -117,36 +117,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -156,66 +126,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -223,9 +133,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,6 +203,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -248,7 +241,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,181 +269,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +454,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -472,15 +481,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -491,6 +491,45 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -515,49 +554,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,130 +575,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>10474</v>
+        <v>12298</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
